--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VCM_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VCM_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4776EEC8-A9A5-413E-860A-3CC5F25C43CD}"/>
+  <xr:revisionPtr revIDLastSave="820" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA62D3-9475-49F5-920F-8B60EBEC02EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="5_1" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t xml:space="preserve">Guatemala </t>
   </si>
@@ -219,7 +219,7 @@
     <t>Sexual</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros tipos y  convinaciones </t>
+    <t xml:space="preserve">Otros tipos y  combinaciones </t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -327,6 +327,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2 2" xfId="2" xr:uid="{F001A68E-93C0-45AB-97C7-FB2E5461EF65}"/>
@@ -859,7 +860,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,8 +1109,8 @@
       <c r="C10">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1462,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4434E24-091D-466A-8751-291BAE036A47}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,267 +1796,298 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182DA67-A281-4222-8C6A-A484B7FC1CB6}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
+        <v>17447</v>
+      </c>
+      <c r="C2">
         <v>58</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5765</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5921</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2193</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>348</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3">
+        <v>10332</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4080</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3398</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>932</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>119</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1758</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4">
+        <v>9578</v>
+      </c>
+      <c r="C4">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3841</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3011</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>829</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>90</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1772</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5">
+        <v>5995</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1958</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2009</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>868</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>149</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
+      <c r="B6">
+        <v>605</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>183</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>221</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>89</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7">
+        <v>456</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>181</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>143</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="B8">
+        <v>334</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>96</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>124</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9">
+        <v>144</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>42</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
+        <v>549</v>
+      </c>
+      <c r="C11">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>209</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>190</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>53</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>73</v>
       </c>
     </row>
@@ -2070,7 +2102,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,17 +2143,17 @@
       <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
+      <c r="G2" s="3">
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>17408</v>
@@ -2137,11 +2169,11 @@
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>19</v>
@@ -2160,20 +2192,20 @@
       <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>9558</v>
@@ -2192,14 +2224,14 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>35</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>5903</v>
@@ -2212,20 +2244,20 @@
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>603</v>
@@ -2241,17 +2273,17 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>455</v>
@@ -2264,20 +2296,20 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>331</v>
@@ -2290,20 +2322,20 @@
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <v>142</v>
@@ -2316,20 +2348,20 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>120</v>
@@ -2342,20 +2374,20 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
+      <c r="G11" s="3">
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>545</v>
@@ -2369,15 +2401,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E986447-9870-45D3-9272-551AD86D7504}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H8" sqref="G1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2397,7 +2429,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -2416,8 +2448,9 @@
       <c r="F2" s="3">
         <v>222</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -2436,8 +2469,9 @@
       <c r="F3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -2456,8 +2490,9 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2476,8 +2511,9 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -2496,8 +2532,9 @@
       <c r="F6" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2516,8 +2553,9 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2536,6 +2574,7 @@
       <c r="F8" s="5">
         <v>40001</v>
       </c>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2546,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A77CEB0-8B50-4BDF-B6DA-BCDD2F5FB20C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,8 +2687,8 @@
       <c r="D5" s="7">
         <v>86</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
+      <c r="E5" s="7">
+        <v>0</v>
       </c>
       <c r="F5" s="7">
         <v>53</v>
@@ -2688,8 +2727,8 @@
       <c r="D7" s="7">
         <v>68</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
+      <c r="E7" s="7">
+        <v>0</v>
       </c>
       <c r="F7" s="7">
         <v>87</v>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VCM_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VCM_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA62D3-9475-49F5-920F-8B60EBEC02EC}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8B002F-50EC-4FCB-BEE1-4FDF0643A1B3}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="5_1" sheetId="9" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4434E24-091D-466A-8751-291BAE036A47}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2583,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A77CEB0-8B50-4BDF-B6DA-BCDD2F5FB20C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2594,7 @@
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -2633,8 +2633,15 @@
       <c r="F2" s="7">
         <v>15297</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>87911</v>
+      </c>
+      <c r="H2">
+        <v>87911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -2653,8 +2660,15 @@
       <c r="F3" s="7">
         <v>8649</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:H8" si="0">SUM(B3:F3)</f>
+        <v>44770</v>
+      </c>
+      <c r="H3">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>55</v>
       </c>
@@ -2673,8 +2687,15 @@
       <c r="F4" s="7">
         <v>5537</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>55206</v>
+      </c>
+      <c r="H4">
+        <v>55206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
@@ -2693,8 +2714,15 @@
       <c r="F5" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="H5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -2713,8 +2741,15 @@
       <c r="F6" s="7">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="H6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
@@ -2733,8 +2768,15 @@
       <c r="F7" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="H7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2752,6 +2794,13 @@
       </c>
       <c r="F8">
         <v>10471</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>57541</v>
+      </c>
+      <c r="H8">
+        <v>57541</v>
       </c>
     </row>
   </sheetData>
